--- a/doc/ue_performance.xlsx
+++ b/doc/ue_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F44A2F-69CB-4EC1-9D05-58265ED42015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAB463-66E7-413D-A287-E704D84756CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>UPROPERTY(EditAnywhere, Category = Performance, meta = (ToolTip = "Minimum duration between ticks; 33=tick at max. 30FPS, 16=60FPS, 8=120FPS"))</t>
   </si>
@@ -80,6 +80,36 @@
   </si>
   <si>
     <t>bool CanBeOccluded()const;</t>
+  </si>
+  <si>
+    <t>bool UParticleSystemComponent::CanConsiderInvisible()const</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>if (World &amp;&amp; Template)</t>
+  </si>
+  <si>
+    <t>const float MaxSecondsBeforeInactive = FMath::Max(SecondsBeforeInactive, Template-&gt;SecondsBeforeInactive);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Clamp MaxSecondsBeforeInactive to be at least twice the maximum smoothed frame time (45.45ms) because the rendering thread runs one </t>
+  </si>
+  <si>
+    <t>// frame behind the game thread and so smaller time differences cannot be reliably detected.</t>
+  </si>
+  <si>
+    <t>const float ClampedMaxSecondsBeforeInactive = MaxSecondsBeforeInactive &gt; 0 ? FMath::Max(MaxSecondsBeforeInactive, 0.1f) : 0.0f;</t>
+  </si>
+  <si>
+    <t>if (ClampedMaxSecondsBeforeInactive &gt; 0.0f &amp;&amp; AccumTickTime &gt; ClampedMaxSecondsBeforeInactive &amp;&amp; World-&gt;IsGameWorld())</t>
+  </si>
+  <si>
+    <t>return (GetLastRenderTime() &gt; 0.0f) &amp;&amp; (World-&gt;GetTimeSeconds() &gt; (GetLastRenderTime() + ClampedMaxSecondsBeforeInactive));</t>
+  </si>
+  <si>
+    <t>return false;</t>
   </si>
 </sst>
 </file>
@@ -414,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:B18"/>
+  <dimension ref="B5:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,14 +477,94 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_performance.xlsx
+++ b/doc/ue_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAB463-66E7-413D-A287-E704D84756CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34EB566-4D3E-46CC-8D04-BA661C8E28B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>UPROPERTY(EditAnywhere, Category = Performance, meta = (ToolTip = "Minimum duration between ticks; 33=tick at max. 30FPS, 16=60FPS, 8=120FPS"))</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>return false;</t>
+  </si>
+  <si>
+    <t>该选项实质会降低粒子渲染的消耗，不会每一帧发起render dirty；但是不会降低tick频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认就是开启的，不可见的时候不渲染，仅针对LOOP的粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会减低粒子计算的tick频率，但会降低发射器，渲染的频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,14 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E39"/>
+  <dimension ref="B3:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
@@ -485,6 +507,11 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
